--- a/TBEA/BusinessPerformance/Documentation/经营管控成本管理平台/附件3：执行订单.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/经营管控成本管理平台/附件3：执行订单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="150" windowWidth="10830" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="4005" yWindow="150" windowWidth="10830" windowHeight="7725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="变压器明细" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="175">
   <si>
     <t>国别</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -642,10 +642,6 @@
   <si>
     <t>产值测算毛利额</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同金额(是否应该是产值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主材成本</t>
@@ -945,6 +941,14 @@
   </si>
   <si>
     <t>企管部门出规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1214,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,13 +1299,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,70 +1358,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1768,7 +1835,7 @@
         <v>135</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -1780,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>4</v>
@@ -1789,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>6</v>
@@ -1810,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>12</v>
@@ -1834,7 +1901,7 @@
         <v>18</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>20</v>
@@ -1857,59 +1924,59 @@
     </row>
     <row r="3" spans="1:34" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="S3" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA3" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC3" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="T3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC3" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE3" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG3" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH3" s="48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1922,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1935,116 +2002,116 @@
     <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="39" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="37" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="O2" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="S2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="36" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>154</v>
+        <v>172</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" t="s">
-        <v>173</v>
-      </c>
       <c r="L3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="P3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="P3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q3" s="48" t="s">
+      <c r="R3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="R3" t="s">
-        <v>146</v>
-      </c>
-      <c r="S3" s="48" t="s">
+      <c r="T3" t="s">
         <v>160</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="V3" s="46" t="s">
         <v>162</v>
-      </c>
-      <c r="V3" s="48" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2058,1081 +2125,1081 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="17" width="9" style="29"/>
+    <col min="6" max="17" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="73" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="73"/>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="28" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="75" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="73"/>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56" t="s">
+      <c r="N16" s="74"/>
+      <c r="O16" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="28" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="28" t="s">
+      <c r="O17" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="75" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="27" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="27" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
     </row>
     <row r="33" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71" t="s">
+      <c r="H33" s="63"/>
+      <c r="I33" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71" t="s">
+      <c r="J33" s="63"/>
+      <c r="K33" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71" t="s">
+      <c r="L33" s="63"/>
+      <c r="M33" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71" t="s">
+      <c r="N33" s="63"/>
+      <c r="O33" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="P33" s="71"/>
+      <c r="P33" s="63"/>
     </row>
     <row r="34" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="40" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="40" t="s">
+      <c r="N34" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="40" t="s">
+      <c r="P34" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="54" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="41" t="s">
+      <c r="C35" s="56"/>
+      <c r="D35" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="45" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="41" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="45" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="41" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="45" t="s">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="46" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="45" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="46" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="46" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="45" t="s">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
     </row>
     <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="46" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
     </row>
     <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="45" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="46" t="s">
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
     </row>
     <row r="50" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="46" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51" s="47"/>
+      <c r="A51" s="45"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -3146,7 +3213,7 @@
       <c r="P51"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52" s="47"/>
+      <c r="A52" s="45"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -3160,850 +3227,850 @@
       <c r="P52"/>
     </row>
     <row r="53" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
     </row>
     <row r="54" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="72" t="s">
+      <c r="D54" s="63"/>
+      <c r="E54" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71" t="s">
+      <c r="H54" s="63"/>
+      <c r="I54" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71" t="s">
+      <c r="J54" s="63"/>
+      <c r="K54" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71" t="s">
+      <c r="L54" s="63"/>
+      <c r="M54" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71" t="s">
+      <c r="N54" s="63"/>
+      <c r="O54" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="P54" s="71"/>
+      <c r="P54" s="63"/>
     </row>
     <row r="55" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="40" t="s">
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="I55" s="40" t="s">
+      <c r="I55" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="K55" s="40" t="s">
+      <c r="K55" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="L55" s="40" t="s">
+      <c r="L55" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="40" t="s">
+      <c r="M55" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="40" t="s">
+      <c r="N55" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O55" s="40" t="s">
+      <c r="O55" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P55" s="40" t="s">
+      <c r="P55" s="38" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="74" t="s">
+      <c r="A56" s="54" t="s">
         <v>101</v>
       </c>
       <c r="B56" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="56"/>
+      <c r="D56" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="45" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="56"/>
+      <c r="D58" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
     </row>
     <row r="59" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="45" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
     </row>
     <row r="60" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="41" t="s">
+      <c r="C60" s="56"/>
+      <c r="D60" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="45" t="s">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="46" t="s">
+      <c r="C62" s="58"/>
+      <c r="D62" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="45" t="s">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="58"/>
+      <c r="D64" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="46" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="58"/>
+      <c r="D66" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
     </row>
     <row r="67" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="45" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="58"/>
+      <c r="D68" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
     </row>
     <row r="69" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="45" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
     </row>
     <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
+      <c r="A70" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="46" t="s">
+      <c r="B70" s="51"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
     </row>
     <row r="71" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="46" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E71" s="44"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
     </row>
     <row r="74" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70"/>
-      <c r="P74" s="70"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="71" t="s">
+      <c r="C75" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="71"/>
-      <c r="E75" s="72" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="72" t="s">
+      <c r="F75" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="71" t="s">
+      <c r="G75" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71" t="s">
+      <c r="H75" s="63"/>
+      <c r="I75" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71" t="s">
+      <c r="J75" s="63"/>
+      <c r="K75" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71" t="s">
+      <c r="L75" s="63"/>
+      <c r="M75" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71" t="s">
+      <c r="N75" s="63"/>
+      <c r="O75" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="P75" s="71"/>
+      <c r="P75" s="63"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="40" t="s">
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="40" t="s">
+      <c r="H76" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="I76" s="40" t="s">
+      <c r="I76" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K76" s="40" t="s">
+      <c r="K76" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L76" s="40" t="s">
+      <c r="L76" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M76" s="40" t="s">
+      <c r="M76" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N76" s="40" t="s">
+      <c r="N76" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O76" s="40" t="s">
+      <c r="O76" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P76" s="40" t="s">
+      <c r="P76" s="38" t="s">
         <v>31</v>
       </c>
       <c r="Q76"/>
     </row>
     <row r="77" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="41" t="s">
+      <c r="C77" s="56"/>
+      <c r="D77" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="45" t="s">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="74" t="s">
+      <c r="A79" s="55"/>
+      <c r="B79" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="41" t="s">
+      <c r="C79" s="56"/>
+      <c r="D79" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="61"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="45" t="s">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
-      <c r="K80" s="44"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="74" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="41" t="s">
+      <c r="C81" s="56"/>
+      <c r="D81" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E81" s="42"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
       <c r="Q81"/>
     </row>
     <row r="82" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="45" t="s">
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="42"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
       <c r="Q82"/>
     </row>
     <row r="83" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="74" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="46" t="s">
+      <c r="C83" s="58"/>
+      <c r="D83" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
       <c r="Q83"/>
     </row>
     <row r="84" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="45" t="s">
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E84" s="42"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
       <c r="Q84"/>
     </row>
     <row r="85" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="46" t="s">
+      <c r="C85" s="58"/>
+      <c r="D85" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
       <c r="Q85"/>
     </row>
     <row r="86" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="46" t="s">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="42"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="46" t="s">
+      <c r="C87" s="58"/>
+      <c r="D87" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="42"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="45" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E88" s="42"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="66" t="s">
+      <c r="A89" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="46" t="s">
+      <c r="B89" s="51"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="44"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="46" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E90" s="44"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A91" s="47"/>
+      <c r="A91" s="45"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
@@ -4018,7 +4085,7 @@
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A92" s="47"/>
+      <c r="A92" s="45"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -4033,416 +4100,416 @@
       <c r="Q92"/>
     </row>
     <row r="93" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="70"/>
-      <c r="O93" s="70"/>
-      <c r="P93" s="70"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="62"/>
+      <c r="O93" s="62"/>
+      <c r="P93" s="62"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="71" t="s">
+      <c r="C94" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="71"/>
-      <c r="E94" s="72" t="s">
+      <c r="D94" s="63"/>
+      <c r="E94" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="F94" s="72" t="s">
+      <c r="F94" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="G94" s="71" t="s">
+      <c r="G94" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71" t="s">
+      <c r="H94" s="63"/>
+      <c r="I94" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="J94" s="71"/>
-      <c r="K94" s="71" t="s">
+      <c r="J94" s="63"/>
+      <c r="K94" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="L94" s="71"/>
-      <c r="M94" s="71" t="s">
+      <c r="L94" s="63"/>
+      <c r="M94" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71" t="s">
+      <c r="N94" s="63"/>
+      <c r="O94" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="P94" s="71"/>
+      <c r="P94" s="63"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="40" t="s">
+      <c r="A95" s="63"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H95" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="I95" s="40" t="s">
+      <c r="I95" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J95" s="40" t="s">
+      <c r="J95" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K95" s="40" t="s">
+      <c r="K95" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="40" t="s">
+      <c r="L95" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M95" s="40" t="s">
+      <c r="M95" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N95" s="40" t="s">
+      <c r="N95" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O95" s="40" t="s">
+      <c r="O95" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P95" s="40" t="s">
+      <c r="P95" s="38" t="s">
         <v>31</v>
       </c>
       <c r="Q95"/>
     </row>
     <row r="96" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="74" t="s">
+      <c r="A96" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="41" t="s">
+      <c r="C96" s="56"/>
+      <c r="D96" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="42"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="44"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="45" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="44"/>
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="74" t="s">
+      <c r="A98" s="55"/>
+      <c r="B98" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="41" t="s">
+      <c r="C98" s="56"/>
+      <c r="D98" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="42"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="44"/>
-      <c r="N98" s="44"/>
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="45" t="s">
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E99" s="42"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="55"/>
+      <c r="B100" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C100" s="64"/>
-      <c r="D100" s="41" t="s">
+      <c r="C100" s="56"/>
+      <c r="D100" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="42"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="42"/>
+      <c r="P100" s="42"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="61"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="45" t="s">
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E101" s="42"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="44"/>
-      <c r="L101" s="44"/>
-      <c r="M101" s="44"/>
-      <c r="N101" s="44"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="42"/>
+      <c r="P101" s="42"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="74" t="s">
+      <c r="A102" s="55"/>
+      <c r="B102" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="46" t="s">
+      <c r="C102" s="58"/>
+      <c r="D102" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="42"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="44"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="44"/>
-      <c r="N102" s="44"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="42"/>
+      <c r="P102" s="42"/>
       <c r="Q102"/>
     </row>
     <row r="103" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="61"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="45" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="42"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="44"/>
-      <c r="L103" s="44"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="42"/>
+      <c r="P103" s="42"/>
       <c r="Q103"/>
     </row>
     <row r="104" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="46" t="s">
+      <c r="C104" s="58"/>
+      <c r="D104" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E104" s="42"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="44"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
+      <c r="O104" s="42"/>
+      <c r="P104" s="42"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="46" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E105" s="42"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="44"/>
-      <c r="L105" s="44"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
+      <c r="O105" s="42"/>
+      <c r="P105" s="42"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C106" s="62"/>
-      <c r="D106" s="46" t="s">
+      <c r="C106" s="58"/>
+      <c r="D106" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="42"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="44"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="44"/>
-      <c r="N106" s="44"/>
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="61"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="45" t="s">
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="42"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="66"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="46" t="s">
+      <c r="B108" s="51"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="44"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="44"/>
-      <c r="N108" s="44"/>
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="46" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="44"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
-      <c r="K109" s="44"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A110" s="47"/>
+      <c r="A110" s="45"/>
       <c r="F110"/>
       <c r="G110"/>
       <c r="H110"/>
@@ -4457,7 +4524,7 @@
       <c r="Q110"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A111" s="47"/>
+      <c r="A111" s="45"/>
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111"/>
@@ -4473,68 +4540,68 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A96:A107"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A93:P93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="A77:A88"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A56:A69"/>
-    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:D34"/>
@@ -4559,68 +4626,68 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A56:A69"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="A77:A88"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A93:P93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4632,221 +4699,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="92" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="18"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="18"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="18"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="18"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="27" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="24"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="89"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="69"/>
+      <c r="H17" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="55"/>
+      <c r="I17" s="69"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="14" t="s">
         <v>31</v>
       </c>
@@ -4861,10 +4928,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27" t="s">
         <v>33</v>
       </c>
@@ -4876,8 +4943,8 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="27" t="s">
         <v>35</v>
       </c>
@@ -4889,10 +4956,10 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="59"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
@@ -4904,8 +4971,8 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
@@ -4917,10 +4984,10 @@
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="27" t="s">
         <v>33</v>
       </c>
@@ -4932,8 +4999,8 @@
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27" t="s">
         <v>35</v>
       </c>
@@ -4945,10 +5012,10 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="27" t="s">
         <v>33</v>
       </c>
@@ -4960,8 +5027,8 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="27" t="s">
         <v>35</v>
       </c>
@@ -4973,10 +5040,10 @@
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="27" t="s">
         <v>33</v>
       </c>
@@ -4988,8 +5055,8 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="27" t="s">
         <v>35</v>
       </c>
@@ -5001,10 +5068,10 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="58"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="27" t="s">
         <v>33</v>
       </c>
@@ -5016,8 +5083,8 @@
       <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="27" t="s">
         <v>35</v>
       </c>
@@ -5029,410 +5096,410 @@
       <c r="I30" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55" t="s">
+      <c r="C35" s="72"/>
+      <c r="D35" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55" t="s">
+      <c r="G35" s="72"/>
+      <c r="H35" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="55"/>
+      <c r="I35" s="72"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="14" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="92" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="77"/>
+      <c r="C37" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="27" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="18"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="77"/>
+      <c r="C39" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="18"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="27" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="81"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="27" t="s">
+      <c r="B41" s="77"/>
+      <c r="C41" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="18"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="57"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="27" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="18"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="77"/>
+      <c r="C43" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="27" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="18"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="27" t="s">
+      <c r="B45" s="87"/>
+      <c r="C45" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="24"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="89"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="27" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="24"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="89"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="81"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="27" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="18"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="27" t="s">
+      <c r="B49" s="87"/>
+      <c r="C49" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="24"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="89"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="27" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="24"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="89"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="87"/>
+      <c r="C51" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="89"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="76"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="24"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="89"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="18"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="27" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="18"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="24"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="89"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="27" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="24"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="89"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="87"/>
+      <c r="C57" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="76"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="24"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="89"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55" t="s">
+      <c r="C61" s="69"/>
+      <c r="D61" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="55" t="s">
+      <c r="E61" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55" t="s">
+      <c r="G61" s="69"/>
+      <c r="H61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="55"/>
+      <c r="I61" s="69"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
       <c r="F62" s="14" t="s">
         <v>31</v>
       </c>
@@ -5447,10 +5514,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="27" t="s">
         <v>33</v>
       </c>
@@ -5462,8 +5529,8 @@
       <c r="I63" s="18"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
       <c r="C64" s="27" t="s">
         <v>35</v>
       </c>
@@ -5475,10 +5542,10 @@
       <c r="I64" s="18"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="57" t="s">
+      <c r="A65" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="59"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="27" t="s">
         <v>33</v>
       </c>
@@ -5490,8 +5557,8 @@
       <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27" t="s">
         <v>35</v>
       </c>
@@ -5503,10 +5570,10 @@
       <c r="I66" s="18"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="59"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="27" t="s">
         <v>33</v>
       </c>
@@ -5518,8 +5585,8 @@
       <c r="I67" s="18"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="59"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="27" t="s">
         <v>35</v>
       </c>
@@ -5531,10 +5598,10 @@
       <c r="I68" s="18"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="59"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="27" t="s">
         <v>33</v>
       </c>
@@ -5546,8 +5613,8 @@
       <c r="I69" s="18"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="59"/>
+      <c r="A70" s="65"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="27" t="s">
         <v>35</v>
       </c>
@@ -5559,10 +5626,10 @@
       <c r="I70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="57" t="s">
+      <c r="A71" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="58"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="27" t="s">
         <v>33</v>
       </c>
@@ -5574,8 +5641,8 @@
       <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="27" t="s">
         <v>35</v>
       </c>
@@ -5587,10 +5654,10 @@
       <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="57" t="s">
+      <c r="A73" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="59"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="27" t="s">
         <v>33</v>
       </c>
@@ -5602,8 +5669,8 @@
       <c r="I73" s="18"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="65"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="27" t="s">
         <v>35</v>
       </c>
@@ -5615,10 +5682,10 @@
       <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B75" s="58"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="27" t="s">
         <v>33</v>
       </c>
@@ -5630,8 +5697,8 @@
       <c r="I75" s="24"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="58"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="27" t="s">
         <v>35</v>
       </c>
@@ -5643,10 +5710,10 @@
       <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="57" t="s">
+      <c r="A77" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="27" t="s">
         <v>33</v>
       </c>
@@ -5658,8 +5725,8 @@
       <c r="I77" s="24"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="58"/>
+      <c r="A78" s="65"/>
+      <c r="B78" s="67"/>
       <c r="C78" s="27" t="s">
         <v>35</v>
       </c>
@@ -5671,10 +5738,10 @@
       <c r="I78" s="24"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B79" s="59"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="27" t="s">
         <v>33</v>
       </c>
@@ -5686,8 +5753,8 @@
       <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="59"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="27" t="s">
         <v>35</v>
       </c>
@@ -5699,10 +5766,10 @@
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="58"/>
+      <c r="B81" s="67"/>
       <c r="C81" s="27" t="s">
         <v>33</v>
       </c>
@@ -5714,8 +5781,8 @@
       <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="58"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="27" t="s">
         <v>35</v>
       </c>
@@ -5727,10 +5794,10 @@
       <c r="I82" s="24"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="58"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="27" t="s">
         <v>33</v>
       </c>
@@ -5742,8 +5809,8 @@
       <c r="I83" s="26"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="58"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="27" t="s">
         <v>35</v>
       </c>
@@ -5756,23 +5823,65 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="A67:A68"/>
@@ -5789,65 +5898,23 @@
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
